--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>805.1489873782563</v>
+        <v>896.0838599499408</v>
       </c>
       <c r="R2">
-        <v>805.1489873782563</v>
+        <v>8064.754739549468</v>
       </c>
       <c r="S2">
-        <v>0.009266801859701565</v>
+        <v>0.009885359136373027</v>
       </c>
       <c r="T2">
-        <v>0.009266801859701565</v>
+        <v>0.009885359136373026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>3903.935100115187</v>
+        <v>4028.584483629831</v>
       </c>
       <c r="R3">
-        <v>3903.935100115187</v>
+        <v>36257.26035266848</v>
       </c>
       <c r="S3">
-        <v>0.04493204812155567</v>
+        <v>0.04444227400114706</v>
       </c>
       <c r="T3">
-        <v>0.04493204812155567</v>
+        <v>0.04444227400114706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>4320.9878983236</v>
+        <v>4448.178845394223</v>
       </c>
       <c r="R4">
-        <v>4320.9878983236</v>
+        <v>40033.60960854801</v>
       </c>
       <c r="S4">
-        <v>0.04973208601096038</v>
+        <v>0.04907112755272198</v>
       </c>
       <c r="T4">
-        <v>0.04973208601096038</v>
+        <v>0.04907112755272198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>3720.456903810399</v>
+        <v>3962.53851551977</v>
       </c>
       <c r="R5">
-        <v>3720.456903810399</v>
+        <v>35662.84663967793</v>
       </c>
       <c r="S5">
-        <v>0.04282031958760034</v>
+        <v>0.04371367242326141</v>
       </c>
       <c r="T5">
-        <v>0.04282031958760034</v>
+        <v>0.04371367242326141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>627.0652192998643</v>
+        <v>709.4667673607323</v>
       </c>
       <c r="R6">
-        <v>627.0652192998643</v>
+        <v>6385.20090624659</v>
       </c>
       <c r="S6">
-        <v>0.007217160092672657</v>
+        <v>0.007826648937828484</v>
       </c>
       <c r="T6">
-        <v>0.007217160092672657</v>
+        <v>0.007826648937828482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>303.2448328703757</v>
+        <v>342.9372898897586</v>
       </c>
       <c r="R7">
-        <v>303.2448328703757</v>
+        <v>3086.435609007828</v>
       </c>
       <c r="S7">
-        <v>0.00349017365138647</v>
+        <v>0.003783193095347254</v>
       </c>
       <c r="T7">
-        <v>0.00349017365138647</v>
+        <v>0.003783193095347252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>1470.346688041049</v>
+        <v>1541.766241593869</v>
       </c>
       <c r="R8">
-        <v>1470.346688041049</v>
+        <v>13875.89617434482</v>
       </c>
       <c r="S8">
-        <v>0.0169228448855313</v>
+        <v>0.01700835567258502</v>
       </c>
       <c r="T8">
-        <v>0.0169228448855313</v>
+        <v>0.01700835567258501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>1627.422096534878</v>
+        <v>1702.347811810458</v>
       </c>
       <c r="R9">
-        <v>1627.422096534878</v>
+        <v>15321.13030629412</v>
       </c>
       <c r="S9">
-        <v>0.01873069251418412</v>
+        <v>0.01877984890354486</v>
       </c>
       <c r="T9">
-        <v>0.01873069251418412</v>
+        <v>0.01877984890354486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>1401.242937249564</v>
+        <v>1516.490007611622</v>
       </c>
       <c r="R10">
-        <v>1401.242937249564</v>
+        <v>13648.4100685046</v>
       </c>
       <c r="S10">
-        <v>0.01612750045066828</v>
+        <v>0.01672951497285021</v>
       </c>
       <c r="T10">
-        <v>0.01612750045066828</v>
+        <v>0.01672951497285021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>236.1727960990144</v>
+        <v>271.5176796947658</v>
       </c>
       <c r="R11">
-        <v>236.1727960990144</v>
+        <v>2443.659117252892</v>
       </c>
       <c r="S11">
-        <v>0.002718213076598063</v>
+        <v>0.002995310925260278</v>
       </c>
       <c r="T11">
-        <v>0.002718213076598063</v>
+        <v>0.002995310925260277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>1650.019034923092</v>
+        <v>1795.257973598383</v>
       </c>
       <c r="R12">
-        <v>1650.019034923092</v>
+        <v>16157.32176238544</v>
       </c>
       <c r="S12">
-        <v>0.01899077028110937</v>
+        <v>0.01980480913075336</v>
       </c>
       <c r="T12">
-        <v>0.01899077028110937</v>
+        <v>0.01980480913075335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>8000.466158778411</v>
+        <v>8071.062028675761</v>
       </c>
       <c r="R13">
-        <v>8000.466158778411</v>
+        <v>72639.55825808186</v>
       </c>
       <c r="S13">
-        <v>0.09208076497749737</v>
+        <v>0.08903781256573522</v>
       </c>
       <c r="T13">
-        <v>0.09208076497749737</v>
+        <v>0.08903781256573522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>8855.146555076955</v>
+        <v>8911.697774170085</v>
       </c>
       <c r="R14">
-        <v>8855.146555076955</v>
+        <v>80205.27996753076</v>
       </c>
       <c r="S14">
-        <v>0.1019176448718131</v>
+        <v>0.09831148283086899</v>
       </c>
       <c r="T14">
-        <v>0.1019176448718131</v>
+        <v>0.09831148283086899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>7624.458089288</v>
+        <v>7938.742324937057</v>
       </c>
       <c r="R15">
-        <v>7624.458089288</v>
+        <v>71448.6809244335</v>
       </c>
       <c r="S15">
-        <v>0.08775312831367632</v>
+        <v>0.08757809673919566</v>
       </c>
       <c r="T15">
-        <v>0.08775312831367632</v>
+        <v>0.08757809673919566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>1285.065949535766</v>
+        <v>1421.380216778569</v>
       </c>
       <c r="R16">
-        <v>1285.065949535766</v>
+        <v>12792.42195100712</v>
       </c>
       <c r="S16">
-        <v>0.01479037012736456</v>
+        <v>0.01568028902225383</v>
       </c>
       <c r="T16">
-        <v>0.01479037012736456</v>
+        <v>0.01568028902225383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>2319.177496017645</v>
+        <v>2550.015640801962</v>
       </c>
       <c r="R17">
-        <v>2319.177496017645</v>
+        <v>22950.14076721766</v>
       </c>
       <c r="S17">
-        <v>0.0266923993819516</v>
+        <v>0.02813109524604541</v>
       </c>
       <c r="T17">
-        <v>0.0266923993819516</v>
+        <v>0.02813109524604541</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>11245.02243936504</v>
+        <v>11464.27684136846</v>
       </c>
       <c r="R18">
-        <v>11245.02243936504</v>
+        <v>103178.4915723162</v>
       </c>
       <c r="S18">
-        <v>0.1294237420490457</v>
+        <v>0.1264708571160544</v>
       </c>
       <c r="T18">
-        <v>0.1294237420490457</v>
+        <v>0.1264708571160544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>12446.31496959056</v>
+        <v>12658.33047084829</v>
       </c>
       <c r="R19">
-        <v>12446.31496959056</v>
+        <v>113924.9742376346</v>
       </c>
       <c r="S19">
-        <v>0.1432499282923994</v>
+        <v>0.1396433396068752</v>
       </c>
       <c r="T19">
-        <v>0.1432499282923994</v>
+        <v>0.1396433396068752</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>10716.52583743109</v>
+        <v>11276.32763346512</v>
       </c>
       <c r="R20">
-        <v>10716.52583743109</v>
+        <v>101486.9487011861</v>
       </c>
       <c r="S20">
-        <v>0.1233410500623182</v>
+        <v>0.1243974513751841</v>
       </c>
       <c r="T20">
-        <v>0.1233410500623182</v>
+        <v>0.1243974513751841</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>1806.219181708293</v>
+        <v>2018.953174204189</v>
       </c>
       <c r="R21">
-        <v>1806.219181708293</v>
+        <v>18170.5785678377</v>
       </c>
       <c r="S21">
-        <v>0.02078854415079783</v>
+        <v>0.02227255516871339</v>
       </c>
       <c r="T21">
-        <v>0.02078854415079783</v>
+        <v>0.02227255516871339</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>151.7223222027206</v>
+        <v>199.1644384746363</v>
       </c>
       <c r="R22">
-        <v>151.7223222027206</v>
+        <v>1792.479946271727</v>
       </c>
       <c r="S22">
-        <v>0.001746236683628699</v>
+        <v>0.002197129185683398</v>
       </c>
       <c r="T22">
-        <v>0.001746236683628699</v>
+        <v>0.002197129185683398</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>735.6577582577515</v>
+        <v>895.3969627068059</v>
       </c>
       <c r="R23">
-        <v>735.6577582577515</v>
+        <v>8058.572664361253</v>
       </c>
       <c r="S23">
-        <v>0.008466997772083294</v>
+        <v>0.009877781468431823</v>
       </c>
       <c r="T23">
-        <v>0.008466997772083294</v>
+        <v>0.009877781468431823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>814.2472119082671</v>
+        <v>988.6563987740922</v>
       </c>
       <c r="R24">
-        <v>814.2472119082671</v>
+        <v>8897.907588966829</v>
       </c>
       <c r="S24">
-        <v>0.009371517192287678</v>
+        <v>0.01090659479672037</v>
       </c>
       <c r="T24">
-        <v>0.009371517192287678</v>
+        <v>0.01090659479672037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>701.0831162308455</v>
+        <v>880.7175239398931</v>
       </c>
       <c r="R25">
-        <v>701.0831162308455</v>
+        <v>7926.457715459039</v>
       </c>
       <c r="S25">
-        <v>0.008069063523818596</v>
+        <v>0.009715841798924287</v>
       </c>
       <c r="T25">
-        <v>0.008069063523818596</v>
+        <v>0.009715841798924287</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>118.1642065458344</v>
+        <v>157.6867485881392</v>
       </c>
       <c r="R26">
-        <v>118.1642065458344</v>
+        <v>1419.180737293253</v>
       </c>
       <c r="S26">
-        <v>0.001360002069349518</v>
+        <v>0.00173955832764112</v>
       </c>
       <c r="T26">
-        <v>0.001360002069349518</v>
+        <v>0.00173955832764112</v>
       </c>
     </row>
   </sheetData>
